--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_CO.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>847.3305366737536</v>
+        <v>498.4779548114582</v>
       </c>
       <c r="C2">
-        <v>5.457306301351766</v>
+        <v>3.210490789764753</v>
       </c>
       <c r="D2">
-        <v>56.60578828509536</v>
+        <v>33.30074434188482</v>
       </c>
       <c r="E2">
-        <v>71.76514279655021</v>
+        <v>42.21887452375667</v>
       </c>
       <c r="F2">
-        <v>26.95055927828168</v>
+        <v>15.85480410372062</v>
       </c>
       <c r="G2">
-        <v>744.8168515038233</v>
+        <v>438.1699523118766</v>
       </c>
       <c r="H2">
-        <v>11.17913263703958</v>
+        <v>6.576596655365329</v>
       </c>
       <c r="I2">
-        <v>1764.105317475896</v>
+        <v>1037.809417537827</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>847.3305366737536</v>
+        <v>498.4779548114582</v>
       </c>
       <c r="C3">
-        <v>8.18595945202765</v>
+        <v>4.81573618464713</v>
       </c>
       <c r="D3">
-        <v>68.25992116732081</v>
+        <v>40.15677994168465</v>
       </c>
       <c r="E3">
-        <v>70.43615867068817</v>
+        <v>41.43704351405749</v>
       </c>
       <c r="F3">
-        <v>31.98133034356093</v>
+        <v>18.81436753641514</v>
       </c>
       <c r="G3">
-        <v>711.3000931861513</v>
+        <v>418.4523044578423</v>
       </c>
       <c r="H3">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I3">
-        <v>1744.946754584862</v>
+        <v>1026.538584216348</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1003.344751691425</v>
+        <v>590.2599023012929</v>
       </c>
       <c r="C4">
-        <v>6.821632876689707</v>
+        <v>4.013113487205941</v>
       </c>
       <c r="D4">
-        <v>76.58430179748194</v>
+        <v>45.05394822725594</v>
       </c>
       <c r="E4">
-        <v>81.06803167758451</v>
+        <v>47.69169159165106</v>
       </c>
       <c r="F4">
-        <v>35.9340790377089</v>
+        <v>21.13973880496082</v>
       </c>
       <c r="G4">
-        <v>431.9937738722174</v>
+        <v>254.1385723408885</v>
       </c>
       <c r="H4">
-        <v>22.35826527407917</v>
+        <v>13.15319331073066</v>
       </c>
       <c r="I4">
-        <v>1658.104836227186</v>
+        <v>975.4501600639859</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1148.958019041252</v>
+        <v>675.9230532918057</v>
       </c>
       <c r="C5">
-        <v>4.365845041081413</v>
+        <v>2.568392631811804</v>
       </c>
       <c r="D5">
-        <v>78.24917792351415</v>
+        <v>46.03338188437019</v>
       </c>
       <c r="E5">
-        <v>87.71295230689471</v>
+        <v>51.60084664014704</v>
       </c>
       <c r="F5">
-        <v>26.05220730233896</v>
+        <v>15.3263106335966</v>
       </c>
       <c r="G5">
-        <v>297.9267406015292</v>
+        <v>175.2679809247507</v>
       </c>
       <c r="H5">
-        <v>9.937006788479632</v>
+        <v>5.845863693658069</v>
       </c>
       <c r="I5">
-        <v>1653.20194900509</v>
+        <v>972.5658297001402</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1384.712832845732</v>
+        <v>814.6157739431111</v>
       </c>
       <c r="C6">
-        <v>9.550286027365589</v>
+        <v>5.618358882088319</v>
       </c>
       <c r="D6">
-        <v>78.24917792351415</v>
+        <v>46.03338188437019</v>
       </c>
       <c r="E6">
-        <v>75.75209517413634</v>
+        <v>44.56436755285426</v>
       </c>
       <c r="F6">
-        <v>19.58407307555136</v>
+        <v>11.52115764870365</v>
       </c>
       <c r="G6">
-        <v>145.2392860432455</v>
+        <v>85.44314070081596</v>
       </c>
       <c r="H6">
-        <v>29.81102036543889</v>
+        <v>17.53759108097421</v>
       </c>
       <c r="I6">
-        <v>1742.898771454984</v>
+        <v>1025.333771692918</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1297.344872435837</v>
+        <v>763.2178833488035</v>
       </c>
       <c r="C7">
-        <v>5.184440986284177</v>
+        <v>3.049966250276516</v>
       </c>
       <c r="D7">
-        <v>53.27603603303089</v>
+        <v>31.3418770276563</v>
       </c>
       <c r="E7">
-        <v>108.9766983206874</v>
+        <v>64.11014279533421</v>
       </c>
       <c r="F7">
-        <v>11.49890529206685</v>
+        <v>6.764716417587461</v>
       </c>
       <c r="G7">
-        <v>74.48168515038229</v>
+        <v>43.81699523118768</v>
       </c>
       <c r="H7">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I7">
-        <v>1558.215393309648</v>
+        <v>916.6859788410893</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>967.9815296207531</v>
+        <v>569.4559942035972</v>
       </c>
       <c r="C8">
-        <v>4.365845041081413</v>
+        <v>2.568392631811804</v>
       </c>
       <c r="D8">
-        <v>49.9462837809665</v>
+        <v>29.38300971342779</v>
       </c>
       <c r="E8">
-        <v>90.37092055861876</v>
+        <v>53.16450865954544</v>
       </c>
       <c r="F8">
-        <v>8.803849364238681</v>
+        <v>5.179236007215401</v>
       </c>
       <c r="G8">
-        <v>96.82619069549699</v>
+        <v>56.96209380054395</v>
       </c>
       <c r="H8">
-        <v>6.210629242799769</v>
+        <v>3.653664808536294</v>
       </c>
       <c r="I8">
-        <v>1224.505248303955</v>
+        <v>720.3668998246778</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>764.1229553309952</v>
+        <v>449.5275828168797</v>
       </c>
       <c r="C9">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D9">
-        <v>36.62727477270874</v>
+        <v>21.54754045651371</v>
       </c>
       <c r="E9">
-        <v>95.68685706206693</v>
+        <v>56.29183269834224</v>
       </c>
       <c r="F9">
-        <v>5.569782250844877</v>
+        <v>3.276659514768927</v>
       </c>
       <c r="G9">
-        <v>74.48168515038229</v>
+        <v>43.81699523118768</v>
       </c>
       <c r="H9">
-        <v>3.726377545679861</v>
+        <v>2.192198885121776</v>
       </c>
       <c r="I9">
-        <v>986.2179690441649</v>
+        <v>580.1843494715552</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>565.1181566195654</v>
+        <v>332.4546097965127</v>
       </c>
       <c r="C10">
-        <v>4.092979726013825</v>
+        <v>2.407868092323565</v>
       </c>
       <c r="D10">
-        <v>9.989256756193297</v>
+        <v>5.876601942685557</v>
       </c>
       <c r="E10">
-        <v>73.09412692241227</v>
+        <v>43.00070553345588</v>
       </c>
       <c r="F10">
-        <v>5.390111855656335</v>
+        <v>3.170960820744123</v>
       </c>
       <c r="G10">
-        <v>70.75760089286322</v>
+        <v>41.62614546962828</v>
       </c>
       <c r="H10">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I10">
-        <v>729.6843586212642</v>
+        <v>429.2676246170574</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>335.6039114157909</v>
+        <v>197.4331670448001</v>
       </c>
       <c r="C11">
-        <v>3.820114410946235</v>
+        <v>2.247343552835328</v>
       </c>
       <c r="D11">
-        <v>18.31363738635437</v>
+        <v>10.77377022825685</v>
       </c>
       <c r="E11">
-        <v>42.5274920275853</v>
+        <v>25.01859231037432</v>
       </c>
       <c r="F11">
-        <v>5.210441460467792</v>
+        <v>3.065262126719319</v>
       </c>
       <c r="G11">
-        <v>59.58534812030587</v>
+        <v>35.05359618495014</v>
       </c>
       <c r="H11">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I11">
-        <v>467.5451965185704</v>
+        <v>275.0531973713506</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>210.0991428904642</v>
+        <v>123.5996892863108</v>
       </c>
       <c r="C12">
-        <v>3.274383780811059</v>
+        <v>1.926294473858852</v>
       </c>
       <c r="D12">
-        <v>3.329752252064431</v>
+        <v>1.958867314228519</v>
       </c>
       <c r="E12">
-        <v>23.92171426551673</v>
+        <v>14.07295817458556</v>
       </c>
       <c r="F12">
-        <v>1.97637434707399</v>
+        <v>1.162685634272845</v>
       </c>
       <c r="G12">
-        <v>40.96492683271028</v>
+        <v>24.09934737715322</v>
       </c>
       <c r="I12">
-        <v>283.5662943686407</v>
+        <v>166.8198422604098</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>123.4245789917578</v>
+        <v>72.60971845862484</v>
       </c>
       <c r="C13">
-        <v>1.63719189040553</v>
+        <v>0.9631472369294262</v>
       </c>
       <c r="D13">
-        <v>3.329752252064431</v>
+        <v>1.958867314228519</v>
       </c>
       <c r="E13">
-        <v>11.96085713275837</v>
+        <v>7.03647908729278</v>
       </c>
       <c r="F13">
-        <v>5.210441460467792</v>
+        <v>3.065262126719319</v>
       </c>
       <c r="G13">
-        <v>59.58534812030587</v>
+        <v>35.05359618495014</v>
       </c>
       <c r="I13">
-        <v>205.1481698477598</v>
+        <v>120.687070408745</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>74.8868232084823</v>
+        <v>44.05533479512069</v>
       </c>
       <c r="C14">
-        <v>1.364326575337941</v>
+        <v>0.8026226974411883</v>
       </c>
       <c r="D14">
-        <v>4.994628378096649</v>
+        <v>2.938300971342779</v>
       </c>
       <c r="E14">
-        <v>1.328984125862041</v>
+        <v>0.7818310096991975</v>
       </c>
       <c r="F14">
-        <v>5.390111855656335</v>
+        <v>3.170960820744123</v>
       </c>
       <c r="G14">
-        <v>48.4130953477485</v>
+        <v>28.48104690027197</v>
       </c>
       <c r="I14">
-        <v>136.3779694911838</v>
+        <v>80.23009719461994</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>65.87266856301683</v>
+        <v>38.75237782904133</v>
       </c>
       <c r="C15">
-        <v>2.455787835608295</v>
+        <v>1.444720855394139</v>
       </c>
       <c r="D15">
-        <v>3.329752252064431</v>
+        <v>1.958867314228519</v>
       </c>
       <c r="E15">
-        <v>3.986952377586123</v>
+        <v>2.345493029097593</v>
       </c>
       <c r="F15">
-        <v>3.234067113393802</v>
+        <v>1.902576492446474</v>
       </c>
       <c r="G15">
-        <v>48.4130953477485</v>
+        <v>28.48104690027197</v>
       </c>
       <c r="H15">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I15">
-        <v>128.5344493379779</v>
+        <v>75.61581538218729</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>58.24530693993068</v>
+        <v>34.26526039620497</v>
       </c>
       <c r="C16">
-        <v>0.8185959452027648</v>
+        <v>0.4815736184647131</v>
       </c>
       <c r="D16">
-        <v>3.329752252064431</v>
+        <v>1.958867314228519</v>
       </c>
       <c r="E16">
-        <v>10.63187300689633</v>
+        <v>6.25464807759358</v>
       </c>
       <c r="F16">
-        <v>2.874726323016712</v>
+        <v>1.691179104396865</v>
       </c>
       <c r="G16">
-        <v>48.4130953477485</v>
+        <v>28.48104690027197</v>
       </c>
       <c r="I16">
-        <v>124.3133498148594</v>
+        <v>73.13257541116062</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>150.4670429281542</v>
+        <v>88.5185893568629</v>
       </c>
       <c r="C17">
-        <v>2.455787835608295</v>
+        <v>1.444720855394139</v>
       </c>
       <c r="D17">
-        <v>13.31900900825772</v>
+        <v>7.835469256914076</v>
       </c>
       <c r="E17">
-        <v>7.973904755172247</v>
+        <v>4.690986058195186</v>
       </c>
       <c r="F17">
-        <v>7.007145412353239</v>
+        <v>4.12224906696736</v>
       </c>
       <c r="G17">
-        <v>85.65393792293969</v>
+        <v>50.38954451586581</v>
       </c>
       <c r="H17">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I17">
-        <v>268.1189537110454</v>
+        <v>157.7322920719067</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>393.8492183557217</v>
+        <v>231.6984274410051</v>
       </c>
       <c r="C18">
-        <v>1.910057205473117</v>
+        <v>1.123671776417664</v>
       </c>
       <c r="D18">
-        <v>29.96777026857989</v>
+        <v>17.62980582805667</v>
       </c>
       <c r="E18">
-        <v>47.84342853103347</v>
+        <v>28.14591634917112</v>
       </c>
       <c r="F18">
-        <v>8.264838178673049</v>
+        <v>4.862139925140991</v>
       </c>
       <c r="G18">
-        <v>189.928297133475</v>
+        <v>111.7333378395286</v>
       </c>
       <c r="H18">
-        <v>4.968503394239816</v>
+        <v>2.922931846829035</v>
       </c>
       <c r="I18">
-        <v>676.7321130671961</v>
+        <v>398.1162310061492</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>757.8823867302885</v>
+        <v>445.8563049172863</v>
       </c>
       <c r="C19">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D19">
-        <v>43.28677927683762</v>
+        <v>25.46527508497075</v>
       </c>
       <c r="E19">
-        <v>94.35787293620493</v>
+        <v>55.51000168864304</v>
       </c>
       <c r="F19">
-        <v>15.81099477659192</v>
+        <v>9.301485074182763</v>
       </c>
       <c r="G19">
-        <v>268.1340665413764</v>
+        <v>157.7411828322756</v>
       </c>
       <c r="H19">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I19">
-        <v>1191.563565708808</v>
+        <v>700.9875645389021</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1304.278837547733</v>
+        <v>767.2970810150185</v>
       </c>
       <c r="C20">
-        <v>5.184440986284177</v>
+        <v>3.049966250276516</v>
       </c>
       <c r="D20">
-        <v>58.27066441112756</v>
+        <v>34.28017799899906</v>
       </c>
       <c r="E20">
-        <v>114.2926348241356</v>
+        <v>67.23746683413103</v>
       </c>
       <c r="F20">
-        <v>19.58407307555136</v>
+        <v>11.52115764870365</v>
       </c>
       <c r="G20">
-        <v>376.1325100094307</v>
+        <v>221.2758259174977</v>
       </c>
       <c r="H20">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I20">
-        <v>1885.195915945622</v>
+        <v>1109.04607343487</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1460.293052565404</v>
+        <v>859.0790285048531</v>
       </c>
       <c r="C21">
-        <v>5.730171616419355</v>
+        <v>3.371015329252991</v>
       </c>
       <c r="D21">
-        <v>76.58430179748194</v>
+        <v>45.05394822725594</v>
       </c>
       <c r="E21">
-        <v>97.01584118792904</v>
+        <v>57.07366370804146</v>
       </c>
       <c r="F21">
-        <v>22.27912900337951</v>
+        <v>13.10663805907571</v>
       </c>
       <c r="G21">
-        <v>450.6141951598132</v>
+        <v>265.0928211486855</v>
       </c>
       <c r="H21">
-        <v>50.92715979095811</v>
+        <v>29.96005142999761</v>
       </c>
       <c r="I21">
-        <v>2163.443851121386</v>
+        <v>1272.737166407162</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1019.986267959976</v>
+        <v>600.0499767002087</v>
       </c>
       <c r="C22">
-        <v>9.004555397230412</v>
+        <v>5.297309803111844</v>
       </c>
       <c r="D22">
-        <v>76.58430179748194</v>
+        <v>45.05394822725594</v>
       </c>
       <c r="E22">
-        <v>87.71295230689471</v>
+        <v>51.60084664014704</v>
       </c>
       <c r="F22">
-        <v>30.54396718205257</v>
+        <v>17.9687779842167</v>
       </c>
       <c r="G22">
-        <v>804.4021996241289</v>
+        <v>473.2235484968268</v>
       </c>
       <c r="H22">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I22">
-        <v>2035.686999359124</v>
+        <v>1197.578805622011</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>717.6653890812888</v>
+        <v>422.1969584532398</v>
       </c>
       <c r="C23">
-        <v>6.548767561622118</v>
+        <v>3.852588947717705</v>
       </c>
       <c r="D23">
-        <v>61.60041666319202</v>
+        <v>36.2390453132276</v>
       </c>
       <c r="E23">
-        <v>71.76514279655021</v>
+        <v>42.21887452375667</v>
       </c>
       <c r="F23">
-        <v>38.62913496553706</v>
+        <v>22.72521921533288</v>
       </c>
       <c r="G23">
-        <v>737.3686829887852</v>
+        <v>433.7882527887581</v>
       </c>
       <c r="H23">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I23">
-        <v>1648.483044239695</v>
+        <v>969.7897347825199</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>808.5003320471329</v>
+        <v>475.6344478806547</v>
       </c>
       <c r="C24">
-        <v>10.09601665750077</v>
+        <v>5.939407961064796</v>
       </c>
       <c r="D24">
-        <v>49.9462837809665</v>
+        <v>29.38300971342779</v>
       </c>
       <c r="E24">
-        <v>67.77819041896407</v>
+        <v>39.8733814946591</v>
       </c>
       <c r="F24">
-        <v>35.75440864252036</v>
+        <v>21.03404011093602</v>
       </c>
       <c r="G24">
-        <v>923.5728958647406</v>
+        <v>543.3307408667272</v>
       </c>
       <c r="H24">
-        <v>32.29527206255881</v>
+        <v>18.99905700438872</v>
       </c>
       <c r="I24">
-        <v>1927.943399474384</v>
+        <v>1134.194085031858</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>755.1088006855299</v>
+        <v>444.2246258508002</v>
       </c>
       <c r="C25">
-        <v>9.277420712298001</v>
+        <v>5.457834342600081</v>
       </c>
       <c r="D25">
-        <v>81.57893017557863</v>
+        <v>47.99224919859874</v>
       </c>
       <c r="E25">
-        <v>89.04193643275677</v>
+        <v>52.38267764984626</v>
       </c>
       <c r="F25">
-        <v>30.72363757724111</v>
+        <v>18.0744766782415</v>
       </c>
       <c r="G25">
-        <v>904.9524745771453</v>
+        <v>532.3764920589301</v>
       </c>
       <c r="H25">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I25">
-        <v>1885.588710343269</v>
+        <v>1109.277151319504</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>768.9767309093229</v>
+        <v>452.3830211832299</v>
       </c>
       <c r="C26">
-        <v>5.730171616419355</v>
+        <v>3.371015329252991</v>
       </c>
       <c r="D26">
-        <v>58.27066441112756</v>
+        <v>34.28017799899906</v>
       </c>
       <c r="E26">
-        <v>62.46225391551594</v>
+        <v>36.74605745586229</v>
       </c>
       <c r="F26">
-        <v>31.08297836761819</v>
+        <v>18.28587406629111</v>
       </c>
       <c r="G26">
-        <v>990.6064125000853</v>
+        <v>582.7660365747962</v>
       </c>
       <c r="H26">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I26">
-        <v>1932.034721902809</v>
+        <v>1136.600978148919</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>871.5994145653912</v>
+        <v>512.7551466432103</v>
       </c>
       <c r="C27">
-        <v>4.092979726013825</v>
+        <v>2.407868092323565</v>
       </c>
       <c r="D27">
-        <v>114.8764526962229</v>
+        <v>67.58092234088389</v>
       </c>
       <c r="E27">
-        <v>69.10717454482614</v>
+        <v>40.65521250435829</v>
       </c>
       <c r="F27">
-        <v>31.08297836761819</v>
+        <v>18.28587406629111</v>
       </c>
       <c r="G27">
-        <v>625.6461552632117</v>
+        <v>368.0627599419764</v>
       </c>
       <c r="H27">
-        <v>24.84251697119907</v>
+        <v>14.61465923414518</v>
       </c>
       <c r="I27">
-        <v>1741.247672134483</v>
+        <v>1024.362442823189</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>907.6560331472529</v>
+        <v>533.9669745075278</v>
       </c>
       <c r="C28">
-        <v>7.640228821892469</v>
+        <v>4.494687105670655</v>
       </c>
       <c r="D28">
-        <v>56.60578828509536</v>
+        <v>33.30074434188482</v>
       </c>
       <c r="E28">
-        <v>65.12022216724002</v>
+        <v>38.3097194752607</v>
       </c>
       <c r="F28">
-        <v>33.23902310988074</v>
+        <v>19.55425839458877</v>
       </c>
       <c r="G28">
-        <v>796.954031109091</v>
+        <v>468.841848973708</v>
       </c>
       <c r="H28">
-        <v>18.63188772839931</v>
+        <v>10.96099442560888</v>
       </c>
       <c r="I28">
-        <v>1885.847214368852</v>
+        <v>1109.42922722425</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>952.0334098633907</v>
+        <v>560.0738395713025</v>
       </c>
       <c r="C29">
-        <v>3.820114410946235</v>
+        <v>2.247343552835328</v>
       </c>
       <c r="D29">
-        <v>86.57355855367524</v>
+        <v>50.9305501699415</v>
       </c>
       <c r="E29">
-        <v>89.04193643275677</v>
+        <v>52.38267764984626</v>
       </c>
       <c r="F29">
-        <v>30.00495599648694</v>
+        <v>17.65168190214229</v>
       </c>
       <c r="G29">
-        <v>599.5775654605777</v>
+        <v>352.7268116110608</v>
       </c>
       <c r="H29">
-        <v>18.63188772839931</v>
+        <v>10.96099442560888</v>
       </c>
       <c r="I29">
-        <v>1779.683428446233</v>
+        <v>1046.973898882738</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1272.38259803301</v>
+        <v>748.5327717504305</v>
       </c>
       <c r="C30">
-        <v>6.821632876689707</v>
+        <v>4.013113487205941</v>
       </c>
       <c r="D30">
-        <v>68.25992116732081</v>
+        <v>40.15677994168465</v>
       </c>
       <c r="E30">
-        <v>85.05498405517061</v>
+        <v>50.03718462074864</v>
       </c>
       <c r="F30">
-        <v>19.58407307555136</v>
+        <v>11.52115764870365</v>
       </c>
       <c r="G30">
-        <v>446.8901109022939</v>
+        <v>262.901971387126</v>
       </c>
       <c r="H30">
-        <v>16.1476360312794</v>
+        <v>9.499528502194362</v>
       </c>
       <c r="I30">
-        <v>1915.140956141316</v>
+        <v>1126.662507338094</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1233.552393406389</v>
+        <v>725.6892648196267</v>
       </c>
       <c r="C31">
-        <v>10.09601665750077</v>
+        <v>5.939407961064796</v>
       </c>
       <c r="D31">
-        <v>53.27603603303089</v>
+        <v>31.3418770276563</v>
       </c>
       <c r="E31">
-        <v>128.911460208618</v>
+        <v>75.83760794082218</v>
       </c>
       <c r="F31">
-        <v>9.342860549804316</v>
+        <v>5.496332089289814</v>
       </c>
       <c r="G31">
-        <v>227.1691397086661</v>
+        <v>133.6418354551224</v>
       </c>
       <c r="H31">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I31">
-        <v>1664.832158261129</v>
+        <v>979.4077912169968</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1056.042886541838</v>
+        <v>621.2618045645261</v>
       </c>
       <c r="C32">
-        <v>12.27893917804147</v>
+        <v>7.223604276970694</v>
       </c>
       <c r="D32">
-        <v>38.29215089874097</v>
+        <v>22.52697411362797</v>
       </c>
       <c r="E32">
-        <v>112.9636506982735</v>
+        <v>66.45563582443182</v>
       </c>
       <c r="F32">
-        <v>9.702201340181405</v>
+        <v>5.707729477339423</v>
       </c>
       <c r="G32">
-        <v>189.928297133475</v>
+        <v>111.7333378395286</v>
       </c>
       <c r="H32">
-        <v>9.937006788479632</v>
+        <v>5.845863693658069</v>
       </c>
       <c r="I32">
-        <v>1429.14513257903</v>
+        <v>840.7549497900826</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>766.8965413757542</v>
+        <v>451.1592618833654</v>
       </c>
       <c r="C33">
-        <v>12.82466980817665</v>
+        <v>7.544653355947172</v>
       </c>
       <c r="D33">
-        <v>43.28677927683762</v>
+        <v>25.46527508497075</v>
       </c>
       <c r="E33">
-        <v>112.9636506982735</v>
+        <v>66.45563582443182</v>
       </c>
       <c r="F33">
-        <v>6.468134226787604</v>
+        <v>3.805152984892948</v>
       </c>
       <c r="G33">
-        <v>119.1706962406117</v>
+        <v>70.10719236990028</v>
       </c>
       <c r="H33">
-        <v>9.937006788479632</v>
+        <v>5.845863693658069</v>
       </c>
       <c r="I33">
-        <v>1071.547478414921</v>
+        <v>630.3830351971666</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>572.7455182426517</v>
+        <v>336.9417272293489</v>
       </c>
       <c r="C34">
-        <v>9.82315134243318</v>
+        <v>5.778883421576557</v>
       </c>
       <c r="D34">
-        <v>24.97314189048325</v>
+        <v>14.69150485671389</v>
       </c>
       <c r="E34">
-        <v>74.42311104827431</v>
+        <v>43.78253654315508</v>
       </c>
       <c r="F34">
-        <v>3.773078298959435</v>
+        <v>2.219672574520887</v>
       </c>
       <c r="G34">
-        <v>119.1706962406117</v>
+        <v>70.10719236990028</v>
       </c>
       <c r="I34">
-        <v>804.9086970634137</v>
+        <v>473.5215169952155</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>399.3963904452389</v>
+        <v>234.961785573977</v>
       </c>
       <c r="C35">
-        <v>4.91157567121659</v>
+        <v>2.889441710788279</v>
       </c>
       <c r="D35">
-        <v>16.64876126032216</v>
+        <v>9.794336571142594</v>
       </c>
       <c r="E35">
-        <v>61.1332697896539</v>
+        <v>35.96422644616311</v>
       </c>
       <c r="F35">
-        <v>3.952748694147981</v>
+        <v>2.325371268545691</v>
       </c>
       <c r="G35">
-        <v>70.75760089286322</v>
+        <v>41.62614546962828</v>
       </c>
       <c r="H35">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I35">
-        <v>559.2845984505627</v>
+        <v>329.0227729636594</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>228.1274521813952</v>
+        <v>134.2056032184696</v>
       </c>
       <c r="C36">
-        <v>10.64174728763594</v>
+        <v>6.26045704004127</v>
       </c>
       <c r="D36">
-        <v>1.664876126032215</v>
+        <v>0.9794336571142594</v>
       </c>
       <c r="E36">
-        <v>29.2376507689649</v>
+        <v>17.20028221338235</v>
       </c>
       <c r="F36">
-        <v>11.67857568725539</v>
+        <v>6.870415111612269</v>
       </c>
       <c r="G36">
-        <v>100.5502749530161</v>
+        <v>59.15294356210335</v>
       </c>
       <c r="H36">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I36">
-        <v>383.1427028528597</v>
+        <v>225.3998677644304</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>120.6509929469993</v>
+        <v>70.97803939213888</v>
       </c>
       <c r="C37">
-        <v>5.457306301351766</v>
+        <v>3.210490789764753</v>
       </c>
       <c r="D37">
-        <v>1.664876126032215</v>
+        <v>0.9794336571142594</v>
       </c>
       <c r="E37">
-        <v>10.63187300689633</v>
+        <v>6.25464807759358</v>
       </c>
       <c r="F37">
-        <v>7.366486202730328</v>
+        <v>4.333646455016966</v>
       </c>
       <c r="G37">
-        <v>78.20576940790146</v>
+        <v>46.00784499274705</v>
       </c>
       <c r="H37">
-        <v>3.726377545679861</v>
+        <v>2.192198885121776</v>
       </c>
       <c r="I37">
-        <v>227.7036815375913</v>
+        <v>133.9563022494972</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>86.67456389870634</v>
+        <v>50.989970827686</v>
       </c>
       <c r="C38">
-        <v>1.364326575337941</v>
+        <v>0.8026226974411883</v>
       </c>
       <c r="D38">
-        <v>3.329752252064431</v>
+        <v>1.958867314228519</v>
       </c>
       <c r="F38">
-        <v>4.671430274902158</v>
+        <v>2.748166044644907</v>
       </c>
       <c r="G38">
-        <v>74.48168515038229</v>
+        <v>43.81699523118768</v>
       </c>
       <c r="H38">
-        <v>6.210629242799769</v>
+        <v>3.653664808536294</v>
       </c>
       <c r="I38">
-        <v>176.7323873941929</v>
+        <v>103.9702869237246</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>63.09908251825824</v>
+        <v>37.12069876255539</v>
       </c>
       <c r="C39">
-        <v>1.910057205473117</v>
+        <v>1.123671776417664</v>
       </c>
       <c r="D39">
-        <v>8.32438063016108</v>
+        <v>4.897168285571297</v>
       </c>
       <c r="F39">
-        <v>2.156044742262534</v>
+        <v>1.26838432829765</v>
       </c>
       <c r="G39">
-        <v>67.0335166353441</v>
+        <v>39.43529570806891</v>
       </c>
       <c r="H39">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I39">
-        <v>143.765207580059</v>
+        <v>84.57595182261817</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>63.79247902944786</v>
+        <v>37.52861852917689</v>
       </c>
       <c r="C40">
-        <v>1.63719189040553</v>
+        <v>0.9631472369294262</v>
       </c>
       <c r="D40">
-        <v>3.329752252064431</v>
+        <v>1.958867314228519</v>
       </c>
       <c r="E40">
-        <v>11.96085713275837</v>
+        <v>7.03647908729278</v>
       </c>
       <c r="F40">
-        <v>3.593407903770891</v>
+        <v>2.113973880496082</v>
       </c>
       <c r="G40">
-        <v>59.58534812030587</v>
+        <v>35.05359618495014</v>
       </c>
       <c r="H40">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I40">
-        <v>146.3832880258729</v>
+        <v>86.11614815648835</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>162.9481801295679</v>
+        <v>95.86114515604964</v>
       </c>
       <c r="C41">
-        <v>2.182922520540707</v>
+        <v>1.284196315905902</v>
       </c>
       <c r="D41">
-        <v>6.659504504128861</v>
+        <v>3.917734628457038</v>
       </c>
       <c r="E41">
-        <v>9.302888881034288</v>
+        <v>5.472817067894385</v>
       </c>
       <c r="F41">
-        <v>3.413737508582346</v>
+        <v>2.008275186471278</v>
       </c>
       <c r="G41">
-        <v>93.10210643797791</v>
+        <v>54.77124403898457</v>
       </c>
       <c r="H41">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I41">
-        <v>278.8514658303919</v>
+        <v>164.0461453554701</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>377.9010985983597</v>
+        <v>222.3162728087109</v>
       </c>
       <c r="C42">
-        <v>4.365845041081413</v>
+        <v>2.568392631811804</v>
       </c>
       <c r="D42">
-        <v>24.97314189048325</v>
+        <v>14.69150485671389</v>
       </c>
       <c r="E42">
-        <v>53.15936503448165</v>
+        <v>31.27324038796791</v>
       </c>
       <c r="F42">
-        <v>8.803849364238681</v>
+        <v>5.179236007215401</v>
       </c>
       <c r="G42">
-        <v>163.8597073308411</v>
+        <v>96.39738950861286</v>
       </c>
       <c r="H42">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I42">
-        <v>640.5157623508454</v>
+        <v>376.8104339712763</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>745.4012495288749</v>
+        <v>438.5137491180994</v>
       </c>
       <c r="C43">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D43">
-        <v>28.30289414254768</v>
+        <v>16.65037217094241</v>
       </c>
       <c r="E43">
-        <v>93.02888881034285</v>
+        <v>54.72817067894384</v>
       </c>
       <c r="F43">
-        <v>15.09231319583774</v>
+        <v>8.878690298083548</v>
       </c>
       <c r="G43">
-        <v>204.8246341635515</v>
+        <v>120.4967368857661</v>
       </c>
       <c r="H43">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I43">
-        <v>1098.741445288663</v>
+        <v>646.3810340933791</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1216.217480626648</v>
+        <v>715.4912706540896</v>
       </c>
       <c r="C44">
-        <v>3.820114410946235</v>
+        <v>2.247343552835328</v>
       </c>
       <c r="D44">
-        <v>63.26529278922422</v>
+        <v>37.21847897034187</v>
       </c>
       <c r="E44">
-        <v>115.6216189499976</v>
+        <v>68.01929784383022</v>
       </c>
       <c r="F44">
-        <v>20.12308426111699</v>
+        <v>11.83825373077806</v>
       </c>
       <c r="G44">
-        <v>335.1675831767207</v>
+        <v>197.1764785403446</v>
       </c>
       <c r="H44">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I44">
-        <v>1769.120684397373</v>
+        <v>1040.759918832707</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1418.689261894026</v>
+        <v>834.6038425075639</v>
       </c>
       <c r="C45">
-        <v>5.730171616419355</v>
+        <v>3.371015329252991</v>
       </c>
       <c r="D45">
-        <v>71.58967341938529</v>
+        <v>42.11564725591316</v>
       </c>
       <c r="E45">
-        <v>99.67380943965304</v>
+        <v>58.63732572743983</v>
       </c>
       <c r="F45">
-        <v>20.12308426111699</v>
+        <v>11.83825373077806</v>
       </c>
       <c r="G45">
-        <v>391.0288470395074</v>
+        <v>230.0392249637353</v>
       </c>
       <c r="H45">
-        <v>28.56889451687893</v>
+        <v>16.80685811926695</v>
       </c>
       <c r="I45">
-        <v>2035.403742186987</v>
+        <v>1197.41216763395</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1194.028792268579</v>
+        <v>702.4378381222022</v>
       </c>
       <c r="C46">
-        <v>7.91309413696006</v>
+        <v>4.655211645158892</v>
       </c>
       <c r="D46">
-        <v>89.90331080573971</v>
+        <v>52.88941748417002</v>
       </c>
       <c r="E46">
-        <v>89.04193643275677</v>
+        <v>52.38267764984626</v>
       </c>
       <c r="F46">
-        <v>38.44946457034852</v>
+        <v>22.61952052130808</v>
       </c>
       <c r="G46">
-        <v>755.9891042763807</v>
+        <v>444.7425015965548</v>
       </c>
       <c r="H46">
-        <v>22.35826527407917</v>
+        <v>13.15319331073066</v>
       </c>
       <c r="I46">
-        <v>2197.683967764844</v>
+        <v>1292.880360329971</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>818.2078832037884</v>
+        <v>481.3453246133557</v>
       </c>
       <c r="C47">
-        <v>9.82315134243318</v>
+        <v>5.778883421576557</v>
       </c>
       <c r="D47">
-        <v>51.61115990699869</v>
+        <v>30.36244337054206</v>
       </c>
       <c r="E47">
-        <v>78.41006342586041</v>
+        <v>46.12802957225267</v>
       </c>
       <c r="F47">
-        <v>47.07364353939865</v>
+        <v>27.69305783449868</v>
       </c>
       <c r="G47">
-        <v>532.5440488252335</v>
+        <v>313.2915159029918</v>
       </c>
       <c r="H47">
-        <v>21.11613942551922</v>
+        <v>12.4224603490234</v>
       </c>
       <c r="I47">
-        <v>1558.786089669232</v>
+        <v>917.0217150642409</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>897.2550854794081</v>
+        <v>527.8481780082054</v>
       </c>
       <c r="C48">
-        <v>11.18747791777112</v>
+        <v>6.581506119017746</v>
       </c>
       <c r="D48">
-        <v>124.8657094524162</v>
+        <v>73.45752428356944</v>
       </c>
       <c r="E48">
-        <v>83.72599992930857</v>
+        <v>49.25535361104946</v>
       </c>
       <c r="F48">
-        <v>45.45660998270176</v>
+        <v>26.74176958827545</v>
       </c>
       <c r="G48">
-        <v>696.4037561560746</v>
+        <v>409.6889054116048</v>
       </c>
       <c r="H48">
-        <v>29.81102036543889</v>
+        <v>17.53759108097421</v>
       </c>
       <c r="I48">
-        <v>1888.705659283119</v>
+        <v>1111.110828102697</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>755.1088006855299</v>
+        <v>444.2246258508002</v>
       </c>
       <c r="C49">
-        <v>9.277420712298001</v>
+        <v>5.457834342600081</v>
       </c>
       <c r="D49">
-        <v>81.57893017557863</v>
+        <v>47.99224919859874</v>
       </c>
       <c r="E49">
-        <v>89.04193643275677</v>
+        <v>52.38267764984626</v>
       </c>
       <c r="F49">
-        <v>30.72363757724111</v>
+        <v>18.0744766782415</v>
       </c>
       <c r="G49">
-        <v>904.9524745771453</v>
+        <v>532.3764920589301</v>
       </c>
       <c r="H49">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I49">
-        <v>1885.588710343269</v>
+        <v>1109.277151319504</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_CO.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>498.4779548114582</v>
+        <v>508.435298211281</v>
       </c>
       <c r="C2">
-        <v>3.210490789764753</v>
+        <v>5.457306301351766</v>
       </c>
       <c r="D2">
-        <v>33.30074434188482</v>
+        <v>56.41905916855767</v>
       </c>
       <c r="E2">
-        <v>42.21887452375667</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F2">
-        <v>15.85480410372062</v>
+        <v>26.45468779965485</v>
       </c>
       <c r="G2">
-        <v>438.1699523118766</v>
+        <v>744.0519316439592</v>
       </c>
       <c r="H2">
-        <v>6.576596655365329</v>
+        <v>11.17913263703958</v>
       </c>
       <c r="I2">
-        <v>1037.809417537827</v>
+        <v>1423.762558558394</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>498.4779548114582</v>
+        <v>508.435298211281</v>
       </c>
       <c r="C3">
-        <v>4.81573618464713</v>
+        <v>8.18595945202765</v>
       </c>
       <c r="D3">
-        <v>40.15677994168465</v>
+        <v>68.03474782090773</v>
       </c>
       <c r="E3">
-        <v>41.43704351405749</v>
+        <v>70.43615867068817</v>
       </c>
       <c r="F3">
-        <v>18.81436753641514</v>
+        <v>31.39289618892377</v>
       </c>
       <c r="G3">
-        <v>418.4523044578423</v>
+        <v>710.5695947199814</v>
       </c>
       <c r="H3">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I3">
-        <v>1026.538584216348</v>
+        <v>1404.507410155169</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>590.2599023012929</v>
+        <v>602.0506354433091</v>
       </c>
       <c r="C4">
-        <v>4.013113487205941</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D4">
-        <v>45.05394822725594</v>
+        <v>76.33166828687213</v>
       </c>
       <c r="E4">
-        <v>47.69169159165106</v>
+        <v>81.06803167758451</v>
       </c>
       <c r="F4">
-        <v>21.13973880496082</v>
+        <v>35.27291706620646</v>
       </c>
       <c r="G4">
-        <v>254.1385723408885</v>
+        <v>431.5501203534965</v>
       </c>
       <c r="H4">
-        <v>13.15319331073066</v>
+        <v>22.35826527407917</v>
       </c>
       <c r="I4">
-        <v>975.4501600639859</v>
+        <v>1255.453270978238</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>675.9230532918057</v>
+        <v>689.4249501932017</v>
       </c>
       <c r="C5">
-        <v>2.568392631811804</v>
+        <v>4.365845041081413</v>
       </c>
       <c r="D5">
-        <v>46.03338188437019</v>
+        <v>77.99105238006493</v>
       </c>
       <c r="E5">
-        <v>51.60084664014704</v>
+        <v>87.71295230689471</v>
       </c>
       <c r="F5">
-        <v>15.3263106335966</v>
+        <v>25.57286487299969</v>
       </c>
       <c r="G5">
-        <v>175.2679809247507</v>
+        <v>297.6207726575838</v>
       </c>
       <c r="H5">
-        <v>5.845863693658069</v>
+        <v>9.937006788479632</v>
       </c>
       <c r="I5">
-        <v>972.5658297001402</v>
+        <v>1192.625444240306</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>814.6157739431111</v>
+        <v>830.8881264549332</v>
       </c>
       <c r="C6">
-        <v>5.618358882088319</v>
+        <v>9.550286027365589</v>
       </c>
       <c r="D6">
-        <v>46.03338188437019</v>
+        <v>77.99105238006493</v>
       </c>
       <c r="E6">
-        <v>44.56436755285426</v>
+        <v>75.75209517413634</v>
       </c>
       <c r="F6">
-        <v>11.52115764870365</v>
+        <v>19.22373980108253</v>
       </c>
       <c r="G6">
-        <v>85.44314070081596</v>
+        <v>145.0901266705721</v>
       </c>
       <c r="H6">
-        <v>17.53759108097421</v>
+        <v>29.81102036543889</v>
       </c>
       <c r="I6">
-        <v>1025.333771692918</v>
+        <v>1188.306446873594</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>763.2178833488035</v>
+        <v>778.4635376049976</v>
       </c>
       <c r="C7">
-        <v>3.049966250276516</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D7">
-        <v>31.3418770276563</v>
+        <v>53.10029098217187</v>
       </c>
       <c r="E7">
-        <v>64.11014279533421</v>
+        <v>108.9766983206874</v>
       </c>
       <c r="F7">
-        <v>6.764716417587461</v>
+        <v>11.28733346118607</v>
       </c>
       <c r="G7">
-        <v>43.81699523118768</v>
+        <v>74.40519316439595</v>
       </c>
       <c r="H7">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I7">
-        <v>916.6859788410893</v>
+        <v>1038.870249611083</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>569.4559942035972</v>
+        <v>580.8311590040499</v>
       </c>
       <c r="C8">
-        <v>2.568392631811804</v>
+        <v>4.365845041081413</v>
       </c>
       <c r="D8">
-        <v>29.38300971342779</v>
+        <v>49.78152279578619</v>
       </c>
       <c r="E8">
-        <v>53.16450865954544</v>
+        <v>90.37092055861876</v>
       </c>
       <c r="F8">
-        <v>5.179236007215401</v>
+        <v>8.64186468122058</v>
       </c>
       <c r="G8">
-        <v>56.96209380054395</v>
+        <v>96.72675111371476</v>
       </c>
       <c r="H8">
-        <v>3.653664808536294</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I8">
-        <v>720.3668998246778</v>
+        <v>836.9286924372714</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>449.5275828168797</v>
+        <v>458.5071183541996</v>
       </c>
       <c r="C9">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D9">
-        <v>21.54754045651371</v>
+        <v>36.50645005024317</v>
       </c>
       <c r="E9">
-        <v>56.29183269834224</v>
+        <v>95.68685706206693</v>
       </c>
       <c r="F9">
-        <v>3.276659514768927</v>
+        <v>5.467302145262003</v>
       </c>
       <c r="G9">
-        <v>43.81699523118768</v>
+        <v>74.40519316439595</v>
       </c>
       <c r="H9">
-        <v>2.192198885121776</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I9">
-        <v>580.1843494715552</v>
+        <v>680.3023352533345</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>332.4546097965127</v>
+        <v>339.0955548626792</v>
       </c>
       <c r="C10">
-        <v>2.407868092323565</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D10">
-        <v>5.876601942685557</v>
+        <v>9.956304559157228</v>
       </c>
       <c r="E10">
-        <v>43.00070553345588</v>
+        <v>73.09412692241227</v>
       </c>
       <c r="F10">
-        <v>3.170960820744123</v>
+        <v>5.29093755993097</v>
       </c>
       <c r="G10">
-        <v>41.62614546962828</v>
+        <v>70.68493350617615</v>
       </c>
       <c r="H10">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I10">
-        <v>429.2676246170574</v>
+        <v>503.4569629849296</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>197.4331670448001</v>
+        <v>201.3769920902293</v>
       </c>
       <c r="C11">
-        <v>2.247343552835328</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D11">
-        <v>10.77377022825685</v>
+        <v>18.25322502512159</v>
       </c>
       <c r="E11">
-        <v>25.01859231037432</v>
+        <v>42.5274920275853</v>
       </c>
       <c r="F11">
-        <v>3.065262126719319</v>
+        <v>5.114572974599935</v>
       </c>
       <c r="G11">
-        <v>35.05359618495014</v>
+        <v>59.52415453151677</v>
       </c>
       <c r="H11">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I11">
-        <v>275.0531973713506</v>
+        <v>333.1008027571191</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>123.5996892863108</v>
+        <v>126.0686541391311</v>
       </c>
       <c r="C12">
-        <v>1.926294473858852</v>
+        <v>3.274383780811059</v>
       </c>
       <c r="D12">
-        <v>1.958867314228519</v>
+        <v>3.318768186385742</v>
       </c>
       <c r="E12">
-        <v>14.07295817458556</v>
+        <v>23.92171426551673</v>
       </c>
       <c r="F12">
-        <v>1.162685634272845</v>
+        <v>1.940010438641356</v>
       </c>
       <c r="G12">
-        <v>24.09934737715322</v>
+        <v>40.92285624041777</v>
       </c>
       <c r="I12">
-        <v>166.8198422604098</v>
+        <v>199.4463870509037</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>72.60971845862484</v>
+        <v>74.06013345467099</v>
       </c>
       <c r="C13">
-        <v>0.9631472369294262</v>
+        <v>1.63719189040553</v>
       </c>
       <c r="D13">
-        <v>1.958867314228519</v>
+        <v>3.318768186385742</v>
       </c>
       <c r="E13">
-        <v>7.03647908729278</v>
+        <v>11.96085713275837</v>
       </c>
       <c r="F13">
-        <v>3.065262126719319</v>
+        <v>5.114572974599935</v>
       </c>
       <c r="G13">
-        <v>35.05359618495014</v>
+        <v>59.52415453151677</v>
       </c>
       <c r="I13">
-        <v>120.687070408745</v>
+        <v>155.6156781703373</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>44.05533479512069</v>
+        <v>44.93536187137344</v>
       </c>
       <c r="C14">
-        <v>0.8026226974411883</v>
+        <v>1.364326575337941</v>
       </c>
       <c r="D14">
-        <v>2.938300971342779</v>
+        <v>4.978152279578614</v>
       </c>
       <c r="E14">
-        <v>0.7818310096991975</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F14">
-        <v>3.170960820744123</v>
+        <v>5.29093755993097</v>
       </c>
       <c r="G14">
-        <v>28.48104690027197</v>
+        <v>48.36337555685738</v>
       </c>
       <c r="I14">
-        <v>80.23009719461994</v>
+        <v>106.2611379689404</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>38.75237782904133</v>
+        <v>39.52647572018962</v>
       </c>
       <c r="C15">
-        <v>1.444720855394139</v>
+        <v>2.455787835608295</v>
       </c>
       <c r="D15">
-        <v>1.958867314228519</v>
+        <v>3.318768186385742</v>
       </c>
       <c r="E15">
-        <v>2.345493029097593</v>
+        <v>3.986952377586123</v>
       </c>
       <c r="F15">
-        <v>1.902576492446474</v>
+        <v>3.174562535958583</v>
       </c>
       <c r="G15">
-        <v>28.48104690027197</v>
+        <v>48.36337555685738</v>
       </c>
       <c r="H15">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I15">
-        <v>75.61581538218729</v>
+        <v>102.0680480611457</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>34.26526039620497</v>
+        <v>34.94972589995713</v>
       </c>
       <c r="C16">
-        <v>0.4815736184647131</v>
+        <v>0.8185959452027648</v>
       </c>
       <c r="D16">
-        <v>1.958867314228519</v>
+        <v>3.318768186385742</v>
       </c>
       <c r="E16">
-        <v>6.25464807759358</v>
+        <v>10.63187300689633</v>
       </c>
       <c r="F16">
-        <v>1.691179104396865</v>
+        <v>2.821833365296518</v>
       </c>
       <c r="G16">
-        <v>28.48104690027197</v>
+        <v>48.36337555685738</v>
       </c>
       <c r="I16">
-        <v>73.13257541116062</v>
+        <v>100.9041719605959</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>88.5185893568629</v>
+        <v>90.28679190822255</v>
       </c>
       <c r="C17">
-        <v>1.444720855394139</v>
+        <v>2.455787835608295</v>
       </c>
       <c r="D17">
-        <v>7.835469256914076</v>
+        <v>13.27507274554297</v>
       </c>
       <c r="E17">
-        <v>4.690986058195186</v>
+        <v>7.973904755172247</v>
       </c>
       <c r="F17">
-        <v>4.12224906696736</v>
+        <v>6.878218827910264</v>
       </c>
       <c r="G17">
-        <v>50.38954451586581</v>
+        <v>85.56597213905535</v>
       </c>
       <c r="H17">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I17">
-        <v>157.7322920719067</v>
+        <v>207.6778740600716</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>231.6984274410051</v>
+        <v>236.3267179901864</v>
       </c>
       <c r="C18">
-        <v>1.123671776417664</v>
+        <v>1.910057205473117</v>
       </c>
       <c r="D18">
-        <v>17.62980582805667</v>
+        <v>29.8689136774717</v>
       </c>
       <c r="E18">
-        <v>28.14591634917112</v>
+        <v>47.84342853103347</v>
       </c>
       <c r="F18">
-        <v>4.862139925140991</v>
+        <v>8.112770925227489</v>
       </c>
       <c r="G18">
-        <v>111.7333378395286</v>
+        <v>189.7332425692096</v>
       </c>
       <c r="H18">
-        <v>2.922931846829035</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I18">
-        <v>398.1162310061492</v>
+        <v>518.7636342928415</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>445.8563049172863</v>
+        <v>454.7625048649182</v>
       </c>
       <c r="C19">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D19">
-        <v>25.46527508497075</v>
+        <v>43.14398642301468</v>
       </c>
       <c r="E19">
-        <v>55.51000168864304</v>
+        <v>94.35787293620493</v>
       </c>
       <c r="F19">
-        <v>9.301485074182763</v>
+        <v>15.52008350913085</v>
       </c>
       <c r="G19">
-        <v>157.7411828322756</v>
+        <v>267.8586953918254</v>
       </c>
       <c r="H19">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I19">
-        <v>700.9875645389021</v>
+        <v>887.7346085726027</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>767.2970810150185</v>
+        <v>782.6242192597542</v>
       </c>
       <c r="C20">
-        <v>3.049966250276516</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D20">
-        <v>34.28017799899906</v>
+        <v>58.07844326175054</v>
       </c>
       <c r="E20">
-        <v>67.23746683413103</v>
+        <v>114.2926348241356</v>
       </c>
       <c r="F20">
-        <v>11.52115764870365</v>
+        <v>19.22373980108253</v>
       </c>
       <c r="G20">
-        <v>221.2758259174977</v>
+        <v>375.7462254801994</v>
       </c>
       <c r="H20">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I20">
-        <v>1109.04607343487</v>
+        <v>1362.602458704566</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>859.0790285048531</v>
+        <v>876.2395564917823</v>
       </c>
       <c r="C21">
-        <v>3.371015329252991</v>
+        <v>5.730171616419355</v>
       </c>
       <c r="D21">
-        <v>45.05394822725594</v>
+        <v>76.33166828687213</v>
       </c>
       <c r="E21">
-        <v>57.07366370804146</v>
+        <v>97.01584118792904</v>
       </c>
       <c r="F21">
-        <v>13.10663805907571</v>
+        <v>21.86920858104801</v>
       </c>
       <c r="G21">
-        <v>265.0928211486855</v>
+        <v>450.1514186445955</v>
       </c>
       <c r="H21">
-        <v>29.96005142999761</v>
+        <v>50.92715979095811</v>
       </c>
       <c r="I21">
-        <v>1272.737166407162</v>
+        <v>1578.265024599604</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>600.0499767002087</v>
+        <v>612.0362714147253</v>
       </c>
       <c r="C22">
-        <v>5.297309803111844</v>
+        <v>9.004555397230412</v>
       </c>
       <c r="D22">
-        <v>45.05394822725594</v>
+        <v>76.33166828687213</v>
       </c>
       <c r="E22">
-        <v>51.60084664014704</v>
+        <v>87.71295230689471</v>
       </c>
       <c r="F22">
-        <v>17.9687779842167</v>
+        <v>29.9819795062755</v>
       </c>
       <c r="G22">
-        <v>473.2235484968268</v>
+        <v>803.5760861754762</v>
       </c>
       <c r="H22">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I22">
-        <v>1197.578805622011</v>
+        <v>1626.096268178834</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>422.1969584532398</v>
+        <v>430.6305512673289</v>
       </c>
       <c r="C23">
-        <v>3.852588947717705</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D23">
-        <v>36.2390453132276</v>
+        <v>61.39721144813626</v>
       </c>
       <c r="E23">
-        <v>42.21887452375667</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F23">
-        <v>22.72521921533288</v>
+        <v>37.91838584617195</v>
       </c>
       <c r="G23">
-        <v>433.7882527887581</v>
+        <v>736.6114123275199</v>
       </c>
       <c r="H23">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I23">
-        <v>969.7897347825199</v>
+        <v>1359.776981430049</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>475.6344478806547</v>
+        <v>485.1354809446428</v>
       </c>
       <c r="C24">
-        <v>5.939407961064796</v>
+        <v>10.09601665750077</v>
       </c>
       <c r="D24">
-        <v>29.38300971342779</v>
+        <v>49.78152279578619</v>
       </c>
       <c r="E24">
-        <v>39.8733814946591</v>
+        <v>67.77819041896407</v>
       </c>
       <c r="F24">
-        <v>21.03404011093602</v>
+        <v>35.09655248087545</v>
       </c>
       <c r="G24">
-        <v>543.3307408667272</v>
+        <v>922.6243952385099</v>
       </c>
       <c r="H24">
-        <v>18.99905700438872</v>
+        <v>32.29527206255881</v>
       </c>
       <c r="I24">
-        <v>1134.194085031858</v>
+        <v>1602.807430598838</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>444.2246258508002</v>
+        <v>453.0982322030155</v>
       </c>
       <c r="C25">
-        <v>5.457834342600081</v>
+        <v>9.277420712298001</v>
       </c>
       <c r="D25">
-        <v>47.99224919859874</v>
+        <v>81.30982056645074</v>
       </c>
       <c r="E25">
-        <v>52.38267764984626</v>
+        <v>89.04193643275677</v>
       </c>
       <c r="F25">
-        <v>18.0744766782415</v>
+        <v>30.15834409160652</v>
       </c>
       <c r="G25">
-        <v>532.3764920589301</v>
+        <v>904.0230969474106</v>
       </c>
       <c r="H25">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I25">
-        <v>1109.277151319504</v>
+        <v>1581.814361136258</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>452.3830211832299</v>
+        <v>461.4195955125291</v>
       </c>
       <c r="C26">
-        <v>3.371015329252991</v>
+        <v>5.730171616419355</v>
       </c>
       <c r="D26">
-        <v>34.28017799899906</v>
+        <v>58.07844326175054</v>
       </c>
       <c r="E26">
-        <v>36.74605745586229</v>
+        <v>62.46225391551594</v>
       </c>
       <c r="F26">
-        <v>18.28587406629111</v>
+        <v>30.51107326226859</v>
       </c>
       <c r="G26">
-        <v>582.7660365747962</v>
+        <v>989.5890690864662</v>
       </c>
       <c r="H26">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I26">
-        <v>1136.600978148919</v>
+        <v>1622.696116837669</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>512.7551466432103</v>
+        <v>522.9976840029295</v>
       </c>
       <c r="C27">
-        <v>2.407868092323565</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D27">
-        <v>67.58092234088389</v>
+        <v>114.4975024303082</v>
       </c>
       <c r="E27">
-        <v>40.65521250435829</v>
+        <v>69.10717454482614</v>
       </c>
       <c r="F27">
-        <v>18.28587406629111</v>
+        <v>30.51107326226859</v>
       </c>
       <c r="G27">
-        <v>368.0627599419764</v>
+        <v>625.0036225809259</v>
       </c>
       <c r="H27">
-        <v>14.61465923414518</v>
+        <v>24.84251697119907</v>
       </c>
       <c r="I27">
-        <v>1024.362442823189</v>
+        <v>1391.052553518472</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>533.9669745075278</v>
+        <v>544.6332286076649</v>
       </c>
       <c r="C28">
-        <v>4.494687105670655</v>
+        <v>7.640228821892469</v>
       </c>
       <c r="D28">
-        <v>33.30074434188482</v>
+        <v>56.41905916855767</v>
       </c>
       <c r="E28">
-        <v>38.3097194752607</v>
+        <v>65.12022216724002</v>
       </c>
       <c r="F28">
-        <v>19.55425839458877</v>
+        <v>32.627448286241</v>
       </c>
       <c r="G28">
-        <v>468.841848973708</v>
+        <v>796.1355668590365</v>
       </c>
       <c r="H28">
-        <v>10.96099442560888</v>
+        <v>18.63188772839931</v>
       </c>
       <c r="I28">
-        <v>1109.42922722425</v>
+        <v>1521.207641639032</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>560.0738395713025</v>
+        <v>571.2615911981087</v>
       </c>
       <c r="C29">
-        <v>2.247343552835328</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D29">
-        <v>50.9305501699415</v>
+        <v>86.28797284602936</v>
       </c>
       <c r="E29">
-        <v>52.38267764984626</v>
+        <v>89.04193643275677</v>
       </c>
       <c r="F29">
-        <v>17.65168190214229</v>
+        <v>29.4528857502824</v>
       </c>
       <c r="G29">
-        <v>352.7268116110608</v>
+        <v>598.9618049733874</v>
       </c>
       <c r="H29">
-        <v>10.96099442560888</v>
+        <v>18.63188772839931</v>
       </c>
       <c r="I29">
-        <v>1046.973898882738</v>
+        <v>1397.45819333991</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>748.5327717504305</v>
+        <v>763.4850836478728</v>
       </c>
       <c r="C30">
-        <v>4.013113487205941</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D30">
-        <v>40.15677994168465</v>
+        <v>68.03474782090773</v>
       </c>
       <c r="E30">
-        <v>50.03718462074864</v>
+        <v>85.05498405517061</v>
       </c>
       <c r="F30">
-        <v>11.52115764870365</v>
+        <v>19.22373980108253</v>
       </c>
       <c r="G30">
-        <v>262.901971387126</v>
+        <v>446.4311589863757</v>
       </c>
       <c r="H30">
-        <v>9.499528502194362</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I30">
-        <v>1126.662507338094</v>
+        <v>1405.198983219379</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>725.6892648196267</v>
+        <v>740.1852663812351</v>
       </c>
       <c r="C31">
-        <v>5.939407961064796</v>
+        <v>10.09601665750077</v>
       </c>
       <c r="D31">
-        <v>31.3418770276563</v>
+        <v>53.10029098217187</v>
       </c>
       <c r="E31">
-        <v>75.83760794082218</v>
+        <v>128.911460208618</v>
       </c>
       <c r="F31">
-        <v>5.496332089289814</v>
+        <v>9.170958437213683</v>
       </c>
       <c r="G31">
-        <v>133.6418354551224</v>
+        <v>226.9358391514075</v>
       </c>
       <c r="H31">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I31">
-        <v>979.4077912169968</v>
+        <v>1170.884083515267</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>621.2618045645261</v>
+        <v>633.6718160194605</v>
       </c>
       <c r="C32">
-        <v>7.223604276970694</v>
+        <v>12.27893917804147</v>
       </c>
       <c r="D32">
-        <v>22.52697411362797</v>
+        <v>38.16583414343607</v>
       </c>
       <c r="E32">
-        <v>66.45563582443182</v>
+        <v>112.9636506982735</v>
       </c>
       <c r="F32">
-        <v>5.707729477339423</v>
+        <v>9.523687607875743</v>
       </c>
       <c r="G32">
-        <v>111.7333378395286</v>
+        <v>189.7332425692096</v>
       </c>
       <c r="H32">
-        <v>5.845863693658069</v>
+        <v>9.937006788479632</v>
       </c>
       <c r="I32">
-        <v>840.7549497900826</v>
+        <v>1006.274177004776</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>451.1592618833654</v>
+        <v>460.1713910161022</v>
       </c>
       <c r="C33">
-        <v>7.544653355947172</v>
+        <v>12.82466980817665</v>
       </c>
       <c r="D33">
-        <v>25.46527508497075</v>
+        <v>43.14398642301468</v>
       </c>
       <c r="E33">
-        <v>66.45563582443182</v>
+        <v>112.9636506982735</v>
       </c>
       <c r="F33">
-        <v>3.805152984892948</v>
+        <v>6.349125071917165</v>
       </c>
       <c r="G33">
-        <v>70.10719236990028</v>
+        <v>119.0483090630335</v>
       </c>
       <c r="H33">
-        <v>5.845863693658069</v>
+        <v>9.937006788479632</v>
       </c>
       <c r="I33">
-        <v>630.3830351971666</v>
+        <v>764.4381388689973</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>336.9417272293489</v>
+        <v>343.6723046829118</v>
       </c>
       <c r="C34">
-        <v>5.778883421576557</v>
+        <v>9.82315134243318</v>
       </c>
       <c r="D34">
-        <v>14.69150485671389</v>
+        <v>24.8907613978931</v>
       </c>
       <c r="E34">
-        <v>43.78253654315508</v>
+        <v>74.42311104827431</v>
       </c>
       <c r="F34">
-        <v>2.219672574520887</v>
+        <v>3.70365629195168</v>
       </c>
       <c r="G34">
-        <v>70.10719236990028</v>
+        <v>119.0483090630335</v>
       </c>
       <c r="I34">
-        <v>473.5215169952155</v>
+        <v>575.5612938264976</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>234.961785573977</v>
+        <v>239.6552633139917</v>
       </c>
       <c r="C35">
-        <v>2.889441710788279</v>
+        <v>4.91157567121659</v>
       </c>
       <c r="D35">
-        <v>9.794336571142594</v>
+        <v>16.59384093192871</v>
       </c>
       <c r="E35">
-        <v>35.96422644616311</v>
+        <v>61.1332697896539</v>
       </c>
       <c r="F35">
-        <v>2.325371268545691</v>
+        <v>3.880020877282713</v>
       </c>
       <c r="G35">
-        <v>41.62614546962828</v>
+        <v>70.68493350617615</v>
       </c>
       <c r="H35">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I35">
-        <v>329.0227729636594</v>
+        <v>399.3431557873697</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>134.2056032184696</v>
+        <v>136.8864264414988</v>
       </c>
       <c r="C36">
-        <v>6.26045704004127</v>
+        <v>10.64174728763594</v>
       </c>
       <c r="D36">
-        <v>0.9794336571142594</v>
+        <v>1.659384093192871</v>
       </c>
       <c r="E36">
-        <v>17.20028221338235</v>
+        <v>29.2376507689649</v>
       </c>
       <c r="F36">
-        <v>6.870415111612269</v>
+        <v>11.46369804651711</v>
       </c>
       <c r="G36">
-        <v>59.15294356210335</v>
+        <v>100.4470107719345</v>
       </c>
       <c r="H36">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I36">
-        <v>225.3998677644304</v>
+        <v>291.5780432583041</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>70.97803939213888</v>
+        <v>72.39586079276837</v>
       </c>
       <c r="C37">
-        <v>3.210490789764753</v>
+        <v>5.457306301351766</v>
       </c>
       <c r="D37">
-        <v>0.9794336571142594</v>
+        <v>1.659384093192871</v>
       </c>
       <c r="E37">
-        <v>6.25464807759358</v>
+        <v>10.63187300689633</v>
       </c>
       <c r="F37">
-        <v>4.333646455016966</v>
+        <v>7.230947998572326</v>
       </c>
       <c r="G37">
-        <v>46.00784499274705</v>
+        <v>78.12545282261574</v>
       </c>
       <c r="H37">
-        <v>2.192198885121776</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I37">
-        <v>133.9563022494972</v>
+        <v>179.2272025610773</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>50.989970827686</v>
+        <v>52.00852068446</v>
       </c>
       <c r="C38">
-        <v>0.8026226974411883</v>
+        <v>1.364326575337941</v>
       </c>
       <c r="D38">
-        <v>1.958867314228519</v>
+        <v>3.318768186385742</v>
       </c>
       <c r="F38">
-        <v>2.748166044644907</v>
+        <v>4.585479218606841</v>
       </c>
       <c r="G38">
-        <v>43.81699523118768</v>
+        <v>74.40519316439595</v>
       </c>
       <c r="H38">
-        <v>3.653664808536294</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I38">
-        <v>103.9702869237246</v>
+        <v>141.8929170719862</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>37.12069876255539</v>
+        <v>37.86220305828689</v>
       </c>
       <c r="C39">
-        <v>1.123671776417664</v>
+        <v>1.910057205473117</v>
       </c>
       <c r="D39">
-        <v>4.897168285571297</v>
+        <v>8.296920465964357</v>
       </c>
       <c r="F39">
-        <v>1.26838432829765</v>
+        <v>2.116375023972388</v>
       </c>
       <c r="G39">
-        <v>39.43529570806891</v>
+        <v>66.96467384795636</v>
       </c>
       <c r="H39">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I39">
-        <v>84.57595182261817</v>
+        <v>118.3923554502131</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>37.52861852917689</v>
+        <v>38.27827122376255</v>
       </c>
       <c r="C40">
-        <v>0.9631472369294262</v>
+        <v>1.63719189040553</v>
       </c>
       <c r="D40">
-        <v>1.958867314228519</v>
+        <v>3.318768186385742</v>
       </c>
       <c r="E40">
-        <v>7.03647908729278</v>
+        <v>11.96085713275837</v>
       </c>
       <c r="F40">
-        <v>2.113973880496082</v>
+        <v>3.527291706620647</v>
       </c>
       <c r="G40">
-        <v>35.05359618495014</v>
+        <v>59.52415453151677</v>
       </c>
       <c r="H40">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I40">
-        <v>86.11614815648835</v>
+        <v>120.7307863685695</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>95.86114515604964</v>
+        <v>97.77601888678485</v>
       </c>
       <c r="C41">
-        <v>1.284196315905902</v>
+        <v>2.182922520540707</v>
       </c>
       <c r="D41">
-        <v>3.917734628457038</v>
+        <v>6.637536372771484</v>
       </c>
       <c r="E41">
-        <v>5.472817067894385</v>
+        <v>9.302888881034288</v>
       </c>
       <c r="F41">
-        <v>2.008275186471278</v>
+        <v>3.350927121289615</v>
       </c>
       <c r="G41">
-        <v>54.77124403898457</v>
+        <v>93.0064914554949</v>
       </c>
       <c r="H41">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I41">
-        <v>164.0461453554701</v>
+        <v>213.4989110864758</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>222.3162728087109</v>
+        <v>226.7571501842456</v>
       </c>
       <c r="C42">
-        <v>2.568392631811804</v>
+        <v>4.365845041081413</v>
       </c>
       <c r="D42">
-        <v>14.69150485671389</v>
+        <v>24.8907613978931</v>
       </c>
       <c r="E42">
-        <v>31.27324038796791</v>
+        <v>53.15936503448165</v>
       </c>
       <c r="F42">
-        <v>5.179236007215401</v>
+        <v>8.64186468122058</v>
       </c>
       <c r="G42">
-        <v>96.39738950861286</v>
+        <v>163.6914249616711</v>
       </c>
       <c r="H42">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I42">
-        <v>376.8104339712763</v>
+        <v>488.9591663919531</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>438.5137491180994</v>
+        <v>447.273277886356</v>
       </c>
       <c r="C43">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D43">
-        <v>16.65037217094241</v>
+        <v>28.20952958427883</v>
       </c>
       <c r="E43">
-        <v>54.72817067894384</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F43">
-        <v>8.878690298083548</v>
+        <v>14.81462516780672</v>
       </c>
       <c r="G43">
-        <v>120.4967368857661</v>
+        <v>204.6142812020888</v>
       </c>
       <c r="H43">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I43">
-        <v>646.3810340933791</v>
+        <v>800.0320680983818</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>715.4912706540896</v>
+        <v>729.7835622443429</v>
       </c>
       <c r="C44">
-        <v>2.247343552835328</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D44">
-        <v>37.21847897034187</v>
+        <v>63.05659554132913</v>
       </c>
       <c r="E44">
-        <v>68.01929784383022</v>
+        <v>115.6216189499976</v>
       </c>
       <c r="F44">
-        <v>11.83825373077806</v>
+        <v>19.75283355707562</v>
       </c>
       <c r="G44">
-        <v>197.1764785403446</v>
+        <v>334.8233692397818</v>
       </c>
       <c r="H44">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I44">
-        <v>1040.759918832707</v>
+        <v>1281.763604126193</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>834.6038425075639</v>
+        <v>851.2754665632413</v>
       </c>
       <c r="C45">
-        <v>3.371015329252991</v>
+        <v>5.730171616419355</v>
       </c>
       <c r="D45">
-        <v>42.11564725591316</v>
+        <v>71.35351600729349</v>
       </c>
       <c r="E45">
-        <v>58.63732572743983</v>
+        <v>99.67380943965304</v>
       </c>
       <c r="F45">
-        <v>11.83825373077806</v>
+        <v>19.75283355707562</v>
       </c>
       <c r="G45">
-        <v>230.0392249637353</v>
+        <v>390.6272641130787</v>
       </c>
       <c r="H45">
-        <v>16.80685811926695</v>
+        <v>28.56889451687893</v>
       </c>
       <c r="I45">
-        <v>1197.41216763395</v>
+        <v>1466.981955813641</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>702.4378381222022</v>
+        <v>716.4693809491212</v>
       </c>
       <c r="C46">
-        <v>4.655211645158892</v>
+        <v>7.91309413696006</v>
       </c>
       <c r="D46">
-        <v>52.88941748417002</v>
+        <v>89.60674103241513</v>
       </c>
       <c r="E46">
-        <v>52.38267764984626</v>
+        <v>89.04193643275677</v>
       </c>
       <c r="F46">
-        <v>22.61952052130808</v>
+        <v>37.74202126084089</v>
       </c>
       <c r="G46">
-        <v>444.7425015965548</v>
+        <v>755.2127106186186</v>
       </c>
       <c r="H46">
-        <v>13.15319331073066</v>
+        <v>22.35826527407917</v>
       </c>
       <c r="I46">
-        <v>1292.880360329971</v>
+        <v>1718.344149704792</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>481.3453246133557</v>
+        <v>490.9604352613025</v>
       </c>
       <c r="C47">
-        <v>5.778883421576557</v>
+        <v>9.82315134243318</v>
       </c>
       <c r="D47">
-        <v>30.36244337054206</v>
+        <v>51.44090688897901</v>
       </c>
       <c r="E47">
-        <v>46.12802957225267</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F47">
-        <v>27.69305783449868</v>
+        <v>46.20752135673047</v>
       </c>
       <c r="G47">
-        <v>313.2915159029918</v>
+        <v>531.9971311254309</v>
       </c>
       <c r="H47">
-        <v>12.4224603490234</v>
+        <v>21.11613942551922</v>
       </c>
       <c r="I47">
-        <v>917.0217150642409</v>
+        <v>1229.955348826255</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>527.8481780082054</v>
+        <v>538.3922061255297</v>
       </c>
       <c r="C48">
-        <v>6.581506119017746</v>
+        <v>11.18747791777112</v>
       </c>
       <c r="D48">
-        <v>73.45752428356944</v>
+        <v>124.4538069894654</v>
       </c>
       <c r="E48">
-        <v>49.25535361104946</v>
+        <v>83.72599992930857</v>
       </c>
       <c r="F48">
-        <v>26.74176958827545</v>
+        <v>44.62024008875118</v>
       </c>
       <c r="G48">
-        <v>409.6889054116048</v>
+        <v>695.6885560871023</v>
       </c>
       <c r="H48">
-        <v>17.53759108097421</v>
+        <v>29.81102036543889</v>
       </c>
       <c r="I48">
-        <v>1111.110828102697</v>
+        <v>1527.879307503367</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>444.2246258508002</v>
+        <v>453.0982322030155</v>
       </c>
       <c r="C49">
-        <v>5.457834342600081</v>
+        <v>9.277420712298001</v>
       </c>
       <c r="D49">
-        <v>47.99224919859874</v>
+        <v>81.30982056645074</v>
       </c>
       <c r="E49">
-        <v>52.38267764984626</v>
+        <v>89.04193643275677</v>
       </c>
       <c r="F49">
-        <v>18.0744766782415</v>
+        <v>30.15834409160652</v>
       </c>
       <c r="G49">
-        <v>532.3764920589301</v>
+        <v>904.0230969474106</v>
       </c>
       <c r="H49">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I49">
-        <v>1109.277151319504</v>
+        <v>1581.814361136258</v>
       </c>
     </row>
   </sheetData>
